--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3762635.945867661</v>
+        <v>3761293.419867614</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383260.7088960321</v>
+        <v>383260.7088960283</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7857055.690399663</v>
+        <v>7857055.690399664</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>33.60023339142367</v>
       </c>
       <c r="H2" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,13 +792,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.29749587628863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.32130452463231</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>72.14565954003523</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>18.29749587628852</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1212,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.43923176655766</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>69.05674881342119</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>292.7428113915151</v>
       </c>
       <c r="C11" t="n">
-        <v>275.2818614990425</v>
+        <v>275.2818614990416</v>
       </c>
       <c r="D11" t="n">
         <v>264.6920113487175</v>
@@ -1385,10 +1385,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H11" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I11" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T11" t="n">
         <v>123.2081244353881</v>
@@ -1427,7 +1427,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V11" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W11" t="n">
         <v>259.2499384454476</v>
@@ -1436,7 +1436,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I12" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S12" t="n">
         <v>149.2146408812902</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096579</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G13" t="n">
         <v>76.98582764574813</v>
       </c>
       <c r="H13" t="n">
-        <v>63.219680698667</v>
+        <v>63.21968069866701</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633789</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497097</v>
       </c>
       <c r="S13" t="n">
         <v>116.3521968385659</v>
@@ -1585,16 +1585,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V13" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W13" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X13" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E14" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F14" t="n">
         <v>316.885015469746</v>
@@ -1622,10 +1622,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H14" t="n">
-        <v>226.3302535795016</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917441</v>
       </c>
       <c r="T14" t="n">
         <v>123.2081244353881</v>
@@ -1664,16 +1664,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V14" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W14" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X14" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S15" t="n">
         <v>149.2146408812902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D16" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G16" t="n">
-        <v>76.98582764574815</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866702</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633791</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S16" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T16" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U16" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V16" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W16" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X16" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T17" t="n">
         <v>123.2081244353881</v>
@@ -1901,7 +1901,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W17" t="n">
         <v>259.2499384454476</v>
@@ -1910,7 +1910,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I18" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S18" t="n">
         <v>149.2146408812902</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D19" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096579</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497097</v>
       </c>
       <c r="S19" t="n">
         <v>116.3521968385659</v>
@@ -2059,16 +2059,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V19" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W19" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X19" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019369</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2257,7 +2257,7 @@
         <v>63.21968069866699</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633796</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E23" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F23" t="n">
         <v>316.885015469746</v>
@@ -2333,10 +2333,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I23" t="n">
-        <v>33.32498986019345</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T23" t="n">
         <v>123.2081244353881</v>
@@ -2375,16 +2375,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V23" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X23" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C25" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D25" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E25" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F25" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G25" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574816</v>
       </c>
       <c r="H25" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866703</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497097</v>
       </c>
       <c r="S25" t="n">
         <v>116.3521968385659</v>
@@ -2530,19 +2530,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V25" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W25" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X25" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F26" t="n">
         <v>316.885015469746</v>
@@ -2570,10 +2570,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019351</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917441</v>
       </c>
       <c r="T26" t="n">
         <v>123.2081244353881</v>
@@ -2612,16 +2612,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V26" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W26" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X26" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997188</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666242</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624694</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460376</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096583</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574816</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633792</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.703773414971</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S28" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U28" t="n">
         <v>196.2726833695757</v>
       </c>
       <c r="V28" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W28" t="n">
         <v>196.5319680646256</v>
@@ -2779,7 +2779,7 @@
         <v>135.7186251170717</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>316.885015469746</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0508974529304</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H29" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795007</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019347</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T29" t="n">
         <v>123.2081244353881</v>
@@ -2849,7 +2849,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V29" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W29" t="n">
         <v>259.2499384454476</v>
@@ -2858,7 +2858,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D31" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497098</v>
       </c>
       <c r="S31" t="n">
         <v>116.3521968385659</v>
@@ -3007,16 +3007,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V31" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W31" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X31" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E32" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F32" t="n">
         <v>316.885015469746</v>
@@ -3044,10 +3044,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I32" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T32" t="n">
         <v>123.2081244353881</v>
@@ -3086,16 +3086,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V32" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W32" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X32" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D34" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574816</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633792</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S34" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T34" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U34" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V34" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W34" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X34" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019351</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917446</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T35" t="n">
         <v>123.2081244353881</v>
@@ -3323,7 +3323,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V35" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W35" t="n">
         <v>259.2499384454476</v>
@@ -3332,7 +3332,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997188</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666242</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624694</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460376</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096583</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574817</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866705</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633793</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497099</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S37" t="n">
         <v>116.3521968385659</v>
@@ -3481,16 +3481,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V37" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W37" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X37" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E38" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F38" t="n">
         <v>316.885015469746</v>
@@ -3518,10 +3518,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H38" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917448</v>
       </c>
       <c r="T38" t="n">
         <v>123.2081244353881</v>
@@ -3560,16 +3560,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V38" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W38" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X38" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E40" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574817</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866705</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633793</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497099</v>
       </c>
       <c r="S40" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T40" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U40" t="n">
         <v>196.2726833695757</v>
       </c>
       <c r="V40" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W40" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X40" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.1427912911801</v>
+        <v>336.1427912911797</v>
       </c>
       <c r="C41" t="n">
-        <v>318.6818413987071</v>
+        <v>318.6818413987066</v>
       </c>
       <c r="D41" t="n">
-        <v>308.0919912483825</v>
+        <v>308.091991248382</v>
       </c>
       <c r="E41" t="n">
-        <v>335.3393196999613</v>
+        <v>335.3393196999609</v>
       </c>
       <c r="F41" t="n">
-        <v>360.284995369411</v>
+        <v>360.2849953694105</v>
       </c>
       <c r="G41" t="n">
-        <v>366.4508773525941</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>269.7302334791661</v>
+        <v>172.8171982154879</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.894110063888078</v>
+        <v>166.6081043350526</v>
       </c>
       <c r="U41" t="n">
-        <v>204.5737377523168</v>
+        <v>204.5737377523163</v>
       </c>
       <c r="V41" t="n">
-        <v>281.1612080978344</v>
+        <v>281.161208097834</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.6499183451121</v>
       </c>
       <c r="X41" t="n">
-        <v>323.1400503061686</v>
+        <v>323.1400503061681</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.6468882837531</v>
+        <v>339.6468882837527</v>
       </c>
     </row>
     <row r="42">
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.84291227426826</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>98.82999765063033</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>159.7521767382308</v>
+        <v>159.7521767382304</v>
       </c>
       <c r="T43" t="n">
-        <v>177.0214747182516</v>
+        <v>177.0214747182512</v>
       </c>
       <c r="U43" t="n">
-        <v>239.6726632692407</v>
+        <v>239.6726632692402</v>
       </c>
       <c r="V43" t="n">
-        <v>205.5465929515275</v>
+        <v>205.5465929515271</v>
       </c>
       <c r="W43" t="n">
-        <v>239.9319479642905</v>
+        <v>239.9319479642901</v>
       </c>
       <c r="X43" t="n">
-        <v>179.1186050167367</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.36864379902103</v>
+        <v>62.81433889086468</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.1427912911801</v>
+        <v>336.1427912911797</v>
       </c>
       <c r="C44" t="n">
-        <v>318.6818413987071</v>
+        <v>318.6818413987066</v>
       </c>
       <c r="D44" t="n">
-        <v>103.342428572208</v>
+        <v>308.091991248382</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>335.3393196999609</v>
       </c>
       <c r="F44" t="n">
-        <v>360.284995369411</v>
+        <v>360.2849953694105</v>
       </c>
       <c r="G44" t="n">
-        <v>366.4508773525941</v>
+        <v>366.4508773525936</v>
       </c>
       <c r="H44" t="n">
-        <v>269.7302334791661</v>
+        <v>269.7302334791657</v>
       </c>
       <c r="I44" t="n">
-        <v>76.72496975985844</v>
+        <v>76.72496975985801</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>166.6081043350531</v>
+        <v>112.2541678090731</v>
       </c>
       <c r="U44" t="n">
-        <v>204.5737377523168</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>281.1612080978344</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>302.6499183451126</v>
+        <v>302.6499183451121</v>
       </c>
       <c r="X44" t="n">
-        <v>323.1400503061686</v>
+        <v>323.1400503061681</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.6468882837531</v>
+        <v>339.6468882837527</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>70.12721755746368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>70.12721755745764</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>177.0214747182516</v>
+        <v>177.0214747182512</v>
       </c>
       <c r="U46" t="n">
-        <v>239.6726632692407</v>
+        <v>239.6726632692402</v>
       </c>
       <c r="V46" t="n">
-        <v>205.5465929515275</v>
+        <v>205.5465929515271</v>
       </c>
       <c r="W46" t="n">
-        <v>239.9319479642905</v>
+        <v>239.9319479642901</v>
       </c>
       <c r="X46" t="n">
-        <v>179.1186050167367</v>
+        <v>179.1186050167362</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.9936029797943</v>
+        <v>171.9936029797939</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>97.60815526925295</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G2" t="n">
-        <v>82.15084464790441</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.2027203719481</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>446.0215048700907</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>238.1700046645579</v>
+        <v>891.1827519348431</v>
       </c>
       <c r="Y6" t="n">
-        <v>238.1700046645579</v>
+        <v>683.4224531698892</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4762,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.2027203719481</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>784.1002736601483</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>784.1002736601483</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>540.6514970160482</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,43 +4890,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>927.2498506959315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>927.2498506959315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>927.2498506959315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>927.2498506959315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>927.2498506959315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>927.2498506959315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>719.3983504903987</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>511.6380517254448</v>
+        <v>894.3028637799077</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C11" t="n">
         <v>1542.033413984769</v>
@@ -5039,10 +5039,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K11" t="n">
-        <v>636.959017072384</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220687</v>
@@ -5051,37 +5051,37 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O11" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P11" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q11" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R11" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S11" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T11" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U11" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V11" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y11" t="n">
         <v>2115.795709833817</v>
@@ -5106,7 +5106,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F12" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G12" t="n">
         <v>220.9013999505779</v>
@@ -5127,16 +5127,16 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M12" t="n">
-        <v>1154.938502604817</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.935634574239</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O12" t="n">
-        <v>2236.615106602171</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P12" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q12" t="n">
         <v>2662.220283762224</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634041</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132401</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D13" t="n">
-        <v>361.0414928786473</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E13" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538296</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G13" t="n">
         <v>170.2750506853968</v>
@@ -5200,13 +5200,13 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L13" t="n">
         <v>588.1068164021221</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N13" t="n">
         <v>1160.182765121766</v>
@@ -5218,31 +5218,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q13" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R13" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S13" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T13" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U13" t="n">
         <v>1218.326354289324</v>
       </c>
       <c r="V13" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0247572019628</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9352368816882</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D14" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233962</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921547</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H14" t="n">
         <v>104.7631941350823</v>
@@ -5279,7 +5279,7 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.959017072384</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L14" t="n">
         <v>1170.239882220687</v>
@@ -5288,7 +5288,7 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N14" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O14" t="n">
         <v>2911.753343601288</v>
@@ -5297,13 +5297,13 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S14" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T14" t="n">
         <v>3362.433995982161</v>
@@ -5343,7 +5343,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F15" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G15" t="n">
         <v>220.9013999505779</v>
@@ -5358,19 +5358,19 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K15" t="n">
-        <v>128.0155738864515</v>
+        <v>128.0155738864514</v>
       </c>
       <c r="L15" t="n">
-        <v>617.9979342484363</v>
+        <v>617.9979342484362</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.763459456299</v>
+        <v>1241.763459456298</v>
       </c>
       <c r="N15" t="n">
         <v>1897.745215431622</v>
       </c>
       <c r="O15" t="n">
-        <v>2431.424687459555</v>
+        <v>2431.424687459554</v>
       </c>
       <c r="P15" t="n">
         <v>2647.936865240548</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.294254063404</v>
+        <v>498.2942540634044</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132404</v>
       </c>
       <c r="D16" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786475</v>
       </c>
       <c r="E16" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739974</v>
       </c>
       <c r="F16" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538299</v>
       </c>
       <c r="G16" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853972</v>
       </c>
       <c r="H16" t="n">
         <v>106.41678735341</v>
@@ -5434,10 +5434,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L16" t="n">
         <v>588.106816402122</v>
@@ -5449,13 +5449,13 @@
         <v>1160.182765121766</v>
       </c>
       <c r="O16" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172266</v>
       </c>
       <c r="P16" t="n">
         <v>1623.34494164282</v>
       </c>
       <c r="Q16" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R16" t="n">
         <v>1669.080268457737</v>
@@ -5464,22 +5464,22 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T16" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V16" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W16" t="n">
-        <v>856.0247572019622</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X16" t="n">
-        <v>718.9352368816877</v>
+        <v>718.9352368816884</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883159008</v>
+        <v>589.0426883159012</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>979.7795239352608</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233964</v>
+        <v>659.6936497233961</v>
       </c>
       <c r="G17" t="n">
         <v>333.3796118921546</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I17" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J17" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K17" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L17" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M17" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N17" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O17" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P17" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q17" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R17" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S17" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T17" t="n">
         <v>3362.433995982161</v>
@@ -5549,13 +5549,13 @@
         <v>3199.632220373423</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y17" t="n">
         <v>2115.795709833817</v>
@@ -5592,25 +5592,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J18" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K18" t="n">
-        <v>128.0155738864514</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L18" t="n">
-        <v>423.1883533910531</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M18" t="n">
-        <v>1046.953878598915</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.935634574239</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O18" t="n">
-        <v>2236.615106602171</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P18" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q18" t="n">
         <v>2662.220283762224</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634039</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132399</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D19" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F19" t="n">
         <v>248.0385129538294</v>
@@ -5665,22 +5665,22 @@
         <v>170.2750506853969</v>
       </c>
       <c r="H19" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I19" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L19" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N19" t="n">
         <v>1160.182765121766</v>
@@ -5695,10 +5695,10 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R19" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S19" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T19" t="n">
         <v>1416.581590016168</v>
@@ -5710,13 +5710,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X19" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1820.095900347437</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.033413984768</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D20" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352605</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233959</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921544</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350826</v>
       </c>
       <c r="I20" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220686</v>
@@ -5774,10 +5774,10 @@
         <v>3555.07941078475</v>
       </c>
       <c r="R20" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S20" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T20" t="n">
         <v>3362.433995982161</v>
@@ -5789,13 +5789,13 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X20" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y20" t="n">
-        <v>2115.795709833816</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786471</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E22" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G22" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H22" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I22" t="n">
         <v>71.10158821569499</v>
@@ -5932,10 +5932,10 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R22" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S22" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T22" t="n">
         <v>1416.581590016168</v>
@@ -5947,13 +5947,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X22" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D23" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233955</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G23" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H23" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I23" t="n">
         <v>71.10158821569499</v>
@@ -5993,40 +5993,40 @@
         <v>636.9590170723837</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M23" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N23" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O23" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P23" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q23" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R23" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S23" t="n">
         <v>3486.886646926997</v>
       </c>
       <c r="T23" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U23" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V23" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X23" t="n">
         <v>2415.035011231886</v>
@@ -6072,10 +6072,10 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L24" t="n">
-        <v>676.2598516450623</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M24" t="n">
-        <v>838.9773637404246</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N24" t="n">
         <v>1494.959119715748</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132401</v>
       </c>
       <c r="D25" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786472</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739968</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G25" t="n">
-        <v>170.2750506853969</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H25" t="n">
         <v>106.4167873534101</v>
@@ -6145,37 +6145,37 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715116</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476435</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L25" t="n">
-        <v>588.1068164021218</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885112</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121765</v>
       </c>
       <c r="O25" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P25" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q25" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R25" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S25" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T25" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U25" t="n">
         <v>1218.326354289324</v>
@@ -6184,13 +6184,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019622</v>
+        <v>856.0247572019626</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816877</v>
+        <v>718.9352368816882</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6206,55 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G26" t="n">
-        <v>333.3796118921543</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H26" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I26" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397087</v>
       </c>
       <c r="K26" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M26" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N26" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O26" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P26" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q26" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R26" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S26" t="n">
         <v>3486.886646926997</v>
       </c>
       <c r="T26" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U26" t="n">
         <v>3199.632220373422</v>
@@ -6312,13 +6312,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M27" t="n">
-        <v>1615.986515717317</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N27" t="n">
-        <v>1797.419321092522</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.098793120455</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P27" t="n">
         <v>2439.960350382057</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132394</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786465</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739963</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F28" t="n">
-        <v>248.0385129538288</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853963</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I28" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L28" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M28" t="n">
         <v>873.7644385885117</v>
@@ -6427,7 +6427,7 @@
         <v>718.9352368816878</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.09590034744</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.033413984771</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.667745955763</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352618</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233971</v>
+        <v>659.6936497233953</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921538</v>
       </c>
       <c r="H29" t="n">
         <v>104.7631941350824</v>
       </c>
       <c r="I29" t="n">
-        <v>71.10158821569502</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J29" t="n">
         <v>249.2363626397092</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N29" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O29" t="n">
         <v>2911.753343601288</v>
@@ -6485,28 +6485,28 @@
         <v>3555.07941078475</v>
       </c>
       <c r="R29" t="n">
-        <v>3555.079410784751</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S29" t="n">
-        <v>3486.886646926999</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T29" t="n">
-        <v>3362.433995982162</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V29" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y29" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F30" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G30" t="n">
         <v>220.9013999505779</v>
@@ -6537,25 +6537,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I30" t="n">
-        <v>71.10158821569502</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J30" t="n">
-        <v>71.10158821569502</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K30" t="n">
-        <v>128.0155738864515</v>
+        <v>407.63956097454</v>
       </c>
       <c r="L30" t="n">
-        <v>250.8659923980117</v>
+        <v>530.4899794861002</v>
       </c>
       <c r="M30" t="n">
-        <v>838.9773637404246</v>
+        <v>1154.255504693962</v>
       </c>
       <c r="N30" t="n">
-        <v>1494.959119715748</v>
+        <v>1810.237260669286</v>
       </c>
       <c r="O30" t="n">
-        <v>2028.63859174368</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P30" t="n">
         <v>2439.960350382057</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.294254063404</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C31" t="n">
         <v>420.25810171324</v>
       </c>
       <c r="D31" t="n">
-        <v>361.0414928786472</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E31" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G31" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H31" t="n">
-        <v>106.4167873534102</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I31" t="n">
-        <v>71.10158821569502</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J31" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L31" t="n">
         <v>588.1068164021221</v>
@@ -6658,13 +6658,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019625</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X31" t="n">
-        <v>718.9352368816881</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159008</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>1820.095900347438</v>
       </c>
       <c r="C32" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352606</v>
+        <v>979.7795239352597</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233959</v>
+        <v>659.6936497233951</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921543</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H32" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I32" t="n">
-        <v>71.10158821569502</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J32" t="n">
         <v>249.2363626397092</v>
       </c>
       <c r="K32" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M32" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N32" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O32" t="n">
         <v>2911.753343601288</v>
@@ -6722,25 +6722,25 @@
         <v>3555.07941078475</v>
       </c>
       <c r="R32" t="n">
-        <v>3555.079410784751</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.433995982162</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U32" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V32" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X32" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y32" t="n">
         <v>2115.795709833817</v>
@@ -6765,7 +6765,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F33" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G33" t="n">
         <v>220.9013999505779</v>
@@ -6774,28 +6774,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I33" t="n">
-        <v>71.10158821569502</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J33" t="n">
         <v>183.5040598342603</v>
       </c>
       <c r="K33" t="n">
-        <v>240.4180455050168</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L33" t="n">
-        <v>730.4004058670016</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M33" t="n">
-        <v>1354.165931074864</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N33" t="n">
-        <v>1535.598736450069</v>
+        <v>2271.96827169264</v>
       </c>
       <c r="O33" t="n">
-        <v>2069.278208478001</v>
+        <v>2415.724047636611</v>
       </c>
       <c r="P33" t="n">
-        <v>2439.960350382057</v>
+        <v>2511.767665321449</v>
       </c>
       <c r="Q33" t="n">
         <v>2662.220283762224</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634041</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132401</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D34" t="n">
-        <v>361.0414928786472</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E34" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G34" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H34" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I34" t="n">
-        <v>71.10158821569502</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7485218715125</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476444</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L34" t="n">
-        <v>588.1068164021226</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885122</v>
+        <v>873.7644385885116</v>
       </c>
       <c r="N34" t="n">
         <v>1160.182765121766</v>
@@ -6877,7 +6877,7 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q34" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
         <v>1669.080268457737</v>
@@ -6886,7 +6886,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T34" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
         <v>1218.326354289324</v>
@@ -6895,13 +6895,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019626</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X34" t="n">
-        <v>718.9352368816882</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>979.7795239352604</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921543</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I35" t="n">
         <v>71.10158821569499</v>
@@ -6938,28 +6938,28 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L35" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M35" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N35" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O35" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P35" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S35" t="n">
         <v>3486.886646926997</v>
@@ -7023,16 +7023,16 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M36" t="n">
-        <v>1615.986515717317</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N36" t="n">
-        <v>2271.96827169264</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O36" t="n">
-        <v>2415.724047636611</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P36" t="n">
-        <v>2511.767665321449</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q36" t="n">
         <v>2662.220283762224</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634043</v>
+        <v>498.2942540634032</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132402</v>
+        <v>420.2581017132392</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786473</v>
+        <v>361.0414928786464</v>
       </c>
       <c r="E37" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739961</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538287</v>
       </c>
       <c r="G37" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853963</v>
       </c>
       <c r="H37" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I37" t="n">
         <v>71.10158821569499</v>
@@ -7102,7 +7102,7 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885112</v>
       </c>
       <c r="N37" t="n">
         <v>1160.182765121765</v>
@@ -7111,34 +7111,34 @@
         <v>1415.521203172264</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q37" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R37" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S37" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T37" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V37" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019629</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816884</v>
+        <v>718.9352368816873</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159012</v>
+        <v>589.0426883159</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C38" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D38" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352605</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G38" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I38" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397087</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K38" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L38" t="n">
         <v>1170.239882220686</v>
@@ -7214,7 +7214,7 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X38" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y38" t="n">
         <v>2115.795709833817</v>
@@ -7257,16 +7257,16 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L39" t="n">
-        <v>992.2209905094544</v>
+        <v>625.0890486590298</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.526314340543</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N39" t="n">
-        <v>1494.959119715748</v>
+        <v>1904.836329842215</v>
       </c>
       <c r="O39" t="n">
-        <v>2028.63859174368</v>
+        <v>2048.592105786186</v>
       </c>
       <c r="P39" t="n">
         <v>2439.960350382057</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634043</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132402</v>
       </c>
       <c r="D40" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786473</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739968</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853969</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H40" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I40" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715119</v>
+        <v>138.748521871513</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476449</v>
       </c>
       <c r="L40" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021231</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885126</v>
       </c>
       <c r="N40" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121767</v>
       </c>
       <c r="O40" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172266</v>
       </c>
       <c r="P40" t="n">
         <v>1623.34494164282</v>
       </c>
       <c r="Q40" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R40" t="n">
         <v>1669.080268457737</v>
@@ -7360,22 +7360,22 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U40" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V40" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816884</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159012</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2049.464475638142</v>
+        <v>1581.420119460087</v>
       </c>
       <c r="C41" t="n">
-        <v>1727.563625740458</v>
+        <v>1259.519269562403</v>
       </c>
       <c r="D41" t="n">
-        <v>1416.359594176435</v>
+        <v>948.3152379983812</v>
       </c>
       <c r="E41" t="n">
-        <v>1077.633008620918</v>
+        <v>609.5886524428652</v>
       </c>
       <c r="F41" t="n">
-        <v>713.7087708740387</v>
+        <v>245.6644146959858</v>
       </c>
       <c r="G41" t="n">
-        <v>343.5563695077821</v>
+        <v>245.6644146959858</v>
       </c>
       <c r="H41" t="n">
         <v>71.10158821569499</v>
@@ -7439,22 +7439,22 @@
         <v>3555.079410784749</v>
       </c>
       <c r="T41" t="n">
-        <v>3549.125764255569</v>
+        <v>3386.788396304898</v>
       </c>
       <c r="U41" t="n">
-        <v>3342.485625111815</v>
+        <v>3180.148257161144</v>
       </c>
       <c r="V41" t="n">
-        <v>3058.484404810972</v>
+        <v>2896.147036860302</v>
       </c>
       <c r="W41" t="n">
-        <v>3058.484404810972</v>
+        <v>2590.440048632916</v>
       </c>
       <c r="X41" t="n">
-        <v>2732.08031359262</v>
+        <v>2264.035957414564</v>
       </c>
       <c r="Y41" t="n">
-        <v>2389.002648659536</v>
+        <v>1920.958292481481</v>
       </c>
     </row>
     <row r="42">
@@ -7497,13 +7497,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N42" t="n">
-        <v>1494.959119715748</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O42" t="n">
-        <v>2028.63859174368</v>
+        <v>2331.098793120455</v>
       </c>
       <c r="P42" t="n">
         <v>2439.960350382057</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.10158821569499</v>
+        <v>271.7812952105421</v>
       </c>
       <c r="C43" t="n">
-        <v>71.10158821569499</v>
+        <v>271.7812952105421</v>
       </c>
       <c r="D43" t="n">
-        <v>71.10158821569499</v>
+        <v>271.7812952105421</v>
       </c>
       <c r="E43" t="n">
-        <v>71.10158821569499</v>
+        <v>170.9298686708772</v>
       </c>
       <c r="F43" t="n">
         <v>71.10158821569499</v>
@@ -7567,52 +7567,52 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>95.78254177084352</v>
+        <v>95.78254177084395</v>
       </c>
       <c r="K43" t="n">
-        <v>236.5051328463071</v>
+        <v>236.5051328463079</v>
       </c>
       <c r="L43" t="n">
-        <v>459.208876100117</v>
+        <v>459.2088761001183</v>
       </c>
       <c r="M43" t="n">
-        <v>701.9005181858383</v>
+        <v>701.90051818584</v>
       </c>
       <c r="N43" t="n">
-        <v>945.3528646184242</v>
+        <v>945.3528646184263</v>
       </c>
       <c r="O43" t="n">
-        <v>1157.725322568255</v>
+        <v>1157.725322568258</v>
       </c>
       <c r="P43" t="n">
-        <v>1322.583080938141</v>
+        <v>1322.583080938144</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.477451303876</v>
+        <v>1367.477451303879</v>
       </c>
       <c r="R43" t="n">
-        <v>1367.477451303876</v>
+        <v>1367.477451303879</v>
       </c>
       <c r="S43" t="n">
-        <v>1206.111616214754</v>
+        <v>1206.111616214758</v>
       </c>
       <c r="T43" t="n">
-        <v>1027.302045792277</v>
+        <v>1027.302045792282</v>
       </c>
       <c r="U43" t="n">
-        <v>785.2084465304181</v>
+        <v>785.2084465304229</v>
       </c>
       <c r="V43" t="n">
-        <v>577.5856253672589</v>
+        <v>577.5856253672641</v>
       </c>
       <c r="W43" t="n">
-        <v>335.230122373026</v>
+        <v>335.2301223730317</v>
       </c>
       <c r="X43" t="n">
-        <v>154.3022385177364</v>
+        <v>335.2301223730317</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.10158821569499</v>
+        <v>271.7812952105421</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1581.420119460084</v>
+        <v>2126.964445092541</v>
       </c>
       <c r="C44" t="n">
-        <v>1259.5192695624</v>
+        <v>1805.063595194857</v>
       </c>
       <c r="D44" t="n">
-        <v>1155.132978075321</v>
+        <v>1493.859563630835</v>
       </c>
       <c r="E44" t="n">
-        <v>1155.132978075321</v>
+        <v>1155.132978075319</v>
       </c>
       <c r="F44" t="n">
-        <v>791.2087403284412</v>
+        <v>791.2087403284398</v>
       </c>
       <c r="G44" t="n">
-        <v>421.0563389621845</v>
+        <v>421.0563389621836</v>
       </c>
       <c r="H44" t="n">
-        <v>148.6015576700975</v>
+        <v>148.601557670097</v>
       </c>
       <c r="I44" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L44" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M44" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N44" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O44" t="n">
         <v>2911.753343601288</v>
@@ -7667,7 +7667,7 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q44" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R44" t="n">
         <v>3555.079410784749</v>
@@ -7676,22 +7676,22 @@
         <v>3555.079410784749</v>
       </c>
       <c r="T44" t="n">
-        <v>3386.788396304898</v>
+        <v>3441.691362492756</v>
       </c>
       <c r="U44" t="n">
-        <v>3180.148257161143</v>
+        <v>3441.691362492756</v>
       </c>
       <c r="V44" t="n">
-        <v>2896.1470368603</v>
+        <v>3441.691362492756</v>
       </c>
       <c r="W44" t="n">
-        <v>2590.440048632914</v>
+        <v>3135.98437426537</v>
       </c>
       <c r="X44" t="n">
-        <v>2264.035957414562</v>
+        <v>2809.580283047018</v>
       </c>
       <c r="Y44" t="n">
-        <v>1920.958292481478</v>
+        <v>2466.502618113935</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K45" t="n">
-        <v>240.4180455050167</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L45" t="n">
-        <v>730.4004058670015</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M45" t="n">
-        <v>1354.165931074864</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N45" t="n">
-        <v>2010.147687050187</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O45" t="n">
-        <v>2543.82715907812</v>
+        <v>2331.098793120455</v>
       </c>
       <c r="P45" t="n">
-        <v>2639.870776762958</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q45" t="n">
         <v>2662.220283762224</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.9371615060562</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="C46" t="n">
-        <v>141.9371615060562</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="D46" t="n">
-        <v>141.9371615060562</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="E46" t="n">
-        <v>141.9371615060562</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="F46" t="n">
-        <v>141.9371615060562</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="G46" t="n">
         <v>71.10158821569499</v>
@@ -7804,52 +7804,52 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>95.78254177084352</v>
+        <v>95.78254177084395</v>
       </c>
       <c r="K46" t="n">
-        <v>236.5051328463071</v>
+        <v>236.5051328463079</v>
       </c>
       <c r="L46" t="n">
-        <v>459.208876100117</v>
+        <v>459.2088761001183</v>
       </c>
       <c r="M46" t="n">
-        <v>701.9005181858383</v>
+        <v>701.90051818584</v>
       </c>
       <c r="N46" t="n">
-        <v>945.3528646184242</v>
+        <v>945.3528646184263</v>
       </c>
       <c r="O46" t="n">
-        <v>1157.725322568255</v>
+        <v>1157.725322568258</v>
       </c>
       <c r="P46" t="n">
-        <v>1322.583080938141</v>
+        <v>1322.583080938144</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.477451303876</v>
+        <v>1367.477451303879</v>
       </c>
       <c r="R46" t="n">
-        <v>1367.477451303876</v>
+        <v>1367.477451303879</v>
       </c>
       <c r="S46" t="n">
-        <v>1367.477451303876</v>
+        <v>1367.477451303879</v>
       </c>
       <c r="T46" t="n">
-        <v>1188.667880881399</v>
+        <v>1188.667880881403</v>
       </c>
       <c r="U46" t="n">
-        <v>946.5742816195402</v>
+        <v>946.5742816195445</v>
       </c>
       <c r="V46" t="n">
-        <v>738.951460456381</v>
+        <v>738.9514604563858</v>
       </c>
       <c r="W46" t="n">
-        <v>496.5959574621481</v>
+        <v>496.5959574621534</v>
       </c>
       <c r="X46" t="n">
-        <v>315.6680736068586</v>
+        <v>315.6680736068643</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.9371615060562</v>
+        <v>141.9371615060624</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="N12" t="n">
-        <v>370.2669965598145</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>12.55318522064589</v>
+        <v>12.55318522064593</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>121.6854142385395</v>
+        <v>121.6854142385405</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>174.062990902062</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>88.34696435069532</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>51.6876797838712</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>12.94741371390268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>168.9106216863872</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>429.6907669162128</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.4126507264815</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>137.5446463829276</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>137.5446463829276</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>160.1897088239655</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>298.307703950538</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>160.1897088239655</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>12.94741371390268</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>12.94741371390268</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.147564118776955</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>366.4508773525936</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>96.91303526367776</v>
       </c>
       <c r="I41" t="n">
-        <v>76.72496975985844</v>
+        <v>76.72496975985801</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.9108161188394</v>
+        <v>110.910816118839</v>
       </c>
       <c r="T41" t="n">
-        <v>160.713994271165</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>302.6499183451126</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.2409298096368</v>
+        <v>133.2409298096364</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6557707263273</v>
+        <v>120.6557707263269</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0244226459119</v>
+        <v>102.0244226459114</v>
       </c>
       <c r="E43" t="n">
-        <v>99.84291227426868</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.82999765063076</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.3858075454131</v>
+        <v>120.3858075454127</v>
       </c>
       <c r="H43" t="n">
-        <v>106.619660598332</v>
+        <v>106.6196605983315</v>
       </c>
       <c r="I43" t="n">
-        <v>78.36202704600285</v>
+        <v>78.36202704600242</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.10375331463592</v>
+        <v>85.1037533146355</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>179.1186050167362</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.62495918077327</v>
+        <v>109.1792640889292</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>204.7495626761745</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>335.3393196999613</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.9108161188394</v>
+        <v>110.910816118839</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>54.35393652597951</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.5737377523163</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>281.161208097834</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.2409298096368</v>
+        <v>63.1137122521727</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6557707263273</v>
+        <v>120.6557707263269</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0244226459119</v>
+        <v>102.0244226459114</v>
       </c>
       <c r="E46" t="n">
-        <v>99.84291227426868</v>
+        <v>99.84291227426826</v>
       </c>
       <c r="F46" t="n">
-        <v>98.82999765063076</v>
+        <v>98.82999765063033</v>
       </c>
       <c r="G46" t="n">
-        <v>50.25858998795546</v>
+        <v>120.3858075454127</v>
       </c>
       <c r="H46" t="n">
-        <v>106.619660598332</v>
+        <v>106.6196605983315</v>
       </c>
       <c r="I46" t="n">
-        <v>78.36202704600285</v>
+        <v>78.36202704600242</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10375331463592</v>
+        <v>85.1037533146355</v>
       </c>
       <c r="S46" t="n">
-        <v>159.7521767382308</v>
+        <v>159.7521767382304</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625817.3356354167</v>
+        <v>625817.3356354174</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625817.3356354167</v>
+        <v>625817.3356354171</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>800515.7256176769</v>
       </c>
       <c r="F2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176753</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="O2" t="n">
-        <v>725779.8873829495</v>
+        <v>725779.887382951</v>
       </c>
       <c r="P2" t="n">
-        <v>725779.8873829495</v>
+        <v>725779.8873829509</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>717213.3002186428</v>
+        <v>717213.3002186427</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.13686837721616e-11</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
         <v>135052.7668166786</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161423.2775258325</v>
+        <v>161423.2775258326</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37272.84029784032</v>
+        <v>37272.84029784078</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>140832.6056564007</v>
       </c>
       <c r="F4" t="n">
-        <v>140832.6056564007</v>
+        <v>140832.6056564008</v>
       </c>
       <c r="G4" t="n">
         <v>140832.6056564007</v>
       </c>
       <c r="H4" t="n">
+        <v>140832.6056564008</v>
+      </c>
+      <c r="I4" t="n">
         <v>140832.6056564007</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>140832.6056564008</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>140832.6056564007</v>
       </c>
-      <c r="K4" t="n">
-        <v>140832.6056564008</v>
-      </c>
       <c r="L4" t="n">
-        <v>140832.6056564008</v>
+        <v>140832.6056564007</v>
       </c>
       <c r="M4" t="n">
         <v>140832.6056564007</v>
       </c>
       <c r="N4" t="n">
-        <v>140832.6056564008</v>
+        <v>140832.6056564007</v>
       </c>
       <c r="O4" t="n">
-        <v>96974.94155771175</v>
+        <v>96974.94155771218</v>
       </c>
       <c r="P4" t="n">
-        <v>96974.94155771175</v>
+        <v>96974.94155771218</v>
       </c>
     </row>
     <row r="5">
@@ -26494,10 +26494,10 @@
         <v>73862.46925788873</v>
       </c>
       <c r="K5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="L5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="M5" t="n">
         <v>73862.46925788873</v>
@@ -26506,10 +26506,10 @@
         <v>73862.46925788873</v>
       </c>
       <c r="O5" t="n">
-        <v>70213.8763477038</v>
+        <v>70213.87634770383</v>
       </c>
       <c r="P5" t="n">
-        <v>70213.8763477038</v>
+        <v>70213.87634770383</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342134.493760373</v>
+        <v>342134.4937603729</v>
       </c>
       <c r="C6" t="n">
-        <v>422903.9252919207</v>
+        <v>422903.9252919205</v>
       </c>
       <c r="D6" t="n">
-        <v>422903.9252919207</v>
+        <v>422903.9252919206</v>
       </c>
       <c r="E6" t="n">
-        <v>-131392.6495152554</v>
+        <v>-131392.6495152553</v>
       </c>
       <c r="F6" t="n">
-        <v>585820.6507033875</v>
+        <v>585820.6507033871</v>
       </c>
       <c r="G6" t="n">
+        <v>585820.6507033868</v>
+      </c>
+      <c r="H6" t="n">
+        <v>585820.6507033871</v>
+      </c>
+      <c r="I6" t="n">
         <v>585820.6507033858</v>
       </c>
-      <c r="H6" t="n">
-        <v>585820.6507033858</v>
-      </c>
-      <c r="I6" t="n">
-        <v>585820.6507033859</v>
-      </c>
       <c r="J6" t="n">
-        <v>450767.883886709</v>
+        <v>450767.883886707</v>
       </c>
       <c r="K6" t="n">
         <v>585820.6507033873</v>
       </c>
       <c r="L6" t="n">
-        <v>585820.6507033854</v>
+        <v>585820.6507033865</v>
       </c>
       <c r="M6" t="n">
-        <v>424397.3731775535</v>
+        <v>424397.3731775547</v>
       </c>
       <c r="N6" t="n">
-        <v>585820.6507033857</v>
+        <v>585820.6507033856</v>
       </c>
       <c r="O6" t="n">
-        <v>521318.2291796937</v>
+        <v>521126.5988252462</v>
       </c>
       <c r="P6" t="n">
-        <v>558591.0694775339</v>
+        <v>558399.4391230869</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F2" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H2" t="n">
         <v>89.99103027196547</v>
       </c>
       <c r="I2" t="n">
+        <v>89.99103027196543</v>
+      </c>
+      <c r="J2" t="n">
         <v>89.99103027196547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>89.99103027196543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89.99103027196549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>89.99103027196546</v>
+      </c>
+      <c r="N2" t="n">
         <v>89.99103027196541</v>
       </c>
-      <c r="K2" t="n">
-        <v>89.99103027196546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>89.99103027196543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89.99103027196541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>89.99103027196547</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="P2" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="F3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="G3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="H3" t="n">
         <v>562.3764353223249</v>
@@ -26796,31 +26796,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>888.7698526961873</v>
+      </c>
+      <c r="F4" t="n">
+        <v>888.7698526961873</v>
+      </c>
+      <c r="G4" t="n">
+        <v>888.7698526961873</v>
+      </c>
+      <c r="H4" t="n">
+        <v>888.7698526961873</v>
+      </c>
+      <c r="I4" t="n">
         <v>888.7698526961874</v>
       </c>
-      <c r="F4" t="n">
-        <v>888.7698526961874</v>
-      </c>
-      <c r="G4" t="n">
-        <v>888.7698526961874</v>
-      </c>
-      <c r="H4" t="n">
-        <v>888.7698526961874</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>888.7698526961873</v>
       </c>
-      <c r="J4" t="n">
-        <v>888.7698526961874</v>
-      </c>
       <c r="K4" t="n">
-        <v>888.7698526961876</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="L4" t="n">
-        <v>888.7698526961876</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="N4" t="n">
         <v>888.7698526961873</v>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.4210854715202e-14</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>89.9910302719654</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230041</v>
+        <v>46.59105037230098</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>647.7555638185282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776589</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>647.7555638185283</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>647.7555638185281</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.4210854715202e-14</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>89.9910302719654</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185283</v>
+        <v>647.7555638185282</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H2" t="n">
-        <v>289.1830869480649</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>147.7031912398178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.940442779765</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.211879125235</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,10 +27704,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>133.6273256634423</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>309.4547625938464</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,28 +27932,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>63.71860238608547</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>136.6259469638832</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="20">
@@ -28995,7 +28995,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196557</v>
       </c>
       <c r="P22" t="n">
         <v>89.99103027196547</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196625</v>
       </c>
       <c r="P25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.853524954955608</v>
+        <v>7.853524954953807</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.853524954955608</v>
+        <v>7.853524954953807</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196612</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196541</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196661</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196564</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="C41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="D41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="E41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="F41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="G41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="H41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="I41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="T41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="U41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="V41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="W41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="X41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="C43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="D43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="E43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="F43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="G43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="H43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="I43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="J43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="K43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="L43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="M43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="N43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="O43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="P43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="R43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="S43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="T43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="U43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="V43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="W43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="X43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="C44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="D44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="E44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="F44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="G44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="H44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="I44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="T44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="U44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="V44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="W44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="X44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="C46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="D46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="E46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="F46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="G46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="H46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="I46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="J46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="K46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="L46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="M46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="N46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="O46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="P46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="R46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="S46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="T46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="U46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="V46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="W46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="X46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.59105037230048</v>
+        <v>46.59105037230091</v>
       </c>
     </row>
   </sheetData>
@@ -31753,43 +31753,43 @@
         <v>2.260809790240501</v>
       </c>
       <c r="H11" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I11" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J11" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344248</v>
       </c>
       <c r="K11" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L11" t="n">
-        <v>356.7727409733782</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1072738488221</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.1420232358341</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R11" t="n">
         <v>142.015592986195</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777799</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U11" t="n">
         <v>0.18086478321924</v>
@@ -31847,13 +31847,13 @@
         <v>262.645711609733</v>
       </c>
       <c r="M12" t="n">
-        <v>306.4951572506671</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N12" t="n">
-        <v>314.6071720582883</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P12" t="n">
         <v>230.9881626515414</v>
@@ -31862,16 +31862,16 @@
         <v>154.4094695624618</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587581</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S12" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I13" t="n">
         <v>30.49739750895494</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068396</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K13" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L13" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813328</v>
       </c>
       <c r="M13" t="n">
         <v>158.9681454797188</v>
@@ -31938,19 +31938,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R13" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S13" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644092</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I14" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J14" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344248</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L14" t="n">
-        <v>356.7727409733782</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N14" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O14" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.1420232358341</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R14" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T14" t="n">
-        <v>9.896694856777799</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U14" t="n">
         <v>0.18086478321924</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H15" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I15" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J15" t="n">
         <v>114.2844414460208</v>
@@ -32084,31 +32084,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M15" t="n">
-        <v>306.4951572506671</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N15" t="n">
-        <v>314.6071720582883</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S15" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,19 +32148,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J16" t="n">
-        <v>71.69838586068396</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K16" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L16" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813328</v>
       </c>
       <c r="M16" t="n">
         <v>158.9681454797188</v>
@@ -32175,19 +32175,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R16" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S16" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644092</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,25 +32224,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H17" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I17" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J17" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K17" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L17" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M17" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N17" t="n">
         <v>403.4019428970884</v>
@@ -32251,19 +32251,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P17" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q17" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R17" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S17" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T17" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U17" t="n">
         <v>0.18086478321924</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H18" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I18" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J18" t="n">
         <v>114.2844414460208</v>
@@ -32324,28 +32324,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N18" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O18" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R18" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S18" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T18" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H19" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I19" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J19" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K19" t="n">
         <v>117.8224728429395</v>
@@ -32412,19 +32412,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R19" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S19" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T19" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K11" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538414</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N11" t="n">
         <v>611.3358037124817</v>
       </c>
       <c r="O11" t="n">
-        <v>531.6229853864431</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P11" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1513240212893</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>113.537850119763</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K12" t="n">
         <v>321.9541114274841</v>
@@ -35495,19 +35495,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M12" t="n">
-        <v>164.3611233286488</v>
+        <v>324.5508321526142</v>
       </c>
       <c r="N12" t="n">
-        <v>553.5324565347695</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655886</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P12" t="n">
         <v>415.4765238771483</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42769547644028</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K13" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L13" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M13" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N13" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O13" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L14" t="n">
-        <v>538.6675405538414</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M14" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O14" t="n">
-        <v>531.6229853864431</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P14" t="n">
-        <v>415.6729862650352</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1513240212893</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>57.48887441490555</v>
+        <v>57.4888744149055</v>
       </c>
       <c r="L15" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N15" t="n">
-        <v>662.6078343185085</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O15" t="n">
-        <v>539.0701737655886</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P15" t="n">
-        <v>218.6991694757507</v>
+        <v>218.6991694757516</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42769547644028</v>
+        <v>14.42769547644022</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K16" t="n">
         <v>185.5440112890221</v>
@@ -35823,7 +35823,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K17" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L17" t="n">
         <v>538.6675405538413</v>
@@ -35893,13 +35893,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O17" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P17" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q17" t="n">
         <v>234.1513240212892</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K18" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L18" t="n">
-        <v>298.1543227319208</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M18" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749548</v>
       </c>
       <c r="O18" t="n">
-        <v>539.0701737655885</v>
+        <v>233.5548188395542</v>
       </c>
       <c r="P18" t="n">
-        <v>415.4765238771483</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.42769547644025</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597662</v>
+        <v>68.3302360159766</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
@@ -36051,16 +36051,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N19" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O19" t="n">
-        <v>257.9176141924235</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P19" t="n">
         <v>209.9229681520754</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394213</v>
+        <v>88.7478287539421</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>289.311440942681</v>
       </c>
       <c r="O22" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924235</v>
       </c>
       <c r="P22" t="n">
         <v>209.9229681520755</v>
@@ -36364,7 +36364,7 @@
         <v>538.6675405538413</v>
       </c>
       <c r="M23" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N23" t="n">
         <v>611.3358037124817</v>
@@ -36440,13 +36440,13 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L24" t="n">
-        <v>175.77901161373</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
         <v>164.3611233286487</v>
       </c>
       <c r="N24" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989204</v>
       </c>
       <c r="O24" t="n">
         <v>539.0701737655885</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597664</v>
+        <v>68.3302360159766</v>
       </c>
       <c r="K25" t="n">
         <v>185.5440112890221</v>
@@ -36525,16 +36525,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N25" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O25" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924241</v>
       </c>
       <c r="P25" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.74782875394214</v>
+        <v>88.7478287539421</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N27" t="n">
-        <v>183.2654599749549</v>
+        <v>343.4551687989204</v>
       </c>
       <c r="O27" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P27" t="n">
-        <v>109.9611689511138</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q27" t="n">
         <v>224.5049832122893</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597658</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890221</v>
@@ -36762,16 +36762,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N28" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O28" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P28" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394209</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K30" t="n">
-        <v>57.48887441490552</v>
+        <v>226.3994961012927</v>
       </c>
       <c r="L30" t="n">
         <v>124.0913318298588</v>
       </c>
       <c r="M30" t="n">
-        <v>594.0518902448615</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N30" t="n">
         <v>662.6078343185084</v>
@@ -36926,7 +36926,7 @@
         <v>539.0701737655885</v>
       </c>
       <c r="P30" t="n">
-        <v>415.4765238771483</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q30" t="n">
         <v>224.5049832122893</v>
@@ -36999,7 +36999,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N31" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O31" t="n">
         <v>257.9176141924233</v>
@@ -37008,7 +37008,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394213</v>
+        <v>88.7478287539421</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K33" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L33" t="n">
         <v>494.931677133318</v>
@@ -37157,16 +37157,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N33" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O33" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P33" t="n">
-        <v>374.4264059636926</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.5049832122893</v>
+        <v>151.9723418593678</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597729</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L34" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M34" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N34" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O34" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P34" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N36" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989204</v>
       </c>
       <c r="O36" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P36" t="n">
-        <v>97.01375523721114</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q36" t="n">
-        <v>151.9723418593678</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597658</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37473,16 +37473,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N37" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O37" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P37" t="n">
-        <v>209.9229681520765</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394209</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>531.622985386443</v>
       </c>
       <c r="P38" t="n">
-        <v>415.6729862650351</v>
+        <v>415.6729862650348</v>
       </c>
       <c r="Q38" t="n">
         <v>234.1513240212892</v>
@@ -37625,19 +37625,19 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L39" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M39" t="n">
-        <v>324.5508321526142</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N39" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O39" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P39" t="n">
-        <v>415.4765238771483</v>
+        <v>395.3214591877491</v>
       </c>
       <c r="Q39" t="n">
         <v>224.5049832122893</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597777</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
@@ -37710,16 +37710,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N40" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O40" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9229681520756</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>391.6390448814895</v>
       </c>
       <c r="L41" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M41" t="n">
         <v>616.1457173461273</v>
@@ -37798,7 +37798,7 @@
         <v>415.6729862650351</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.1513240212892</v>
+        <v>234.151324021289</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>494.931677133318</v>
       </c>
       <c r="M42" t="n">
-        <v>324.5508321526142</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N42" t="n">
         <v>183.2654599749549</v>
@@ -37874,7 +37874,7 @@
         <v>539.0701737655885</v>
       </c>
       <c r="P42" t="n">
-        <v>415.4765238771483</v>
+        <v>109.9611689511138</v>
       </c>
       <c r="Q42" t="n">
         <v>224.5049832122893</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.93025611631165</v>
+        <v>24.93025611631207</v>
       </c>
       <c r="K43" t="n">
-        <v>142.1440313893571</v>
+        <v>142.1440313893576</v>
       </c>
       <c r="L43" t="n">
-        <v>224.9532760139494</v>
+        <v>224.9532760139499</v>
       </c>
       <c r="M43" t="n">
-        <v>245.1430728138599</v>
+        <v>245.1430728138603</v>
       </c>
       <c r="N43" t="n">
-        <v>245.911461043016</v>
+        <v>245.9114610430164</v>
       </c>
       <c r="O43" t="n">
-        <v>214.5176342927584</v>
+        <v>214.5176342927588</v>
       </c>
       <c r="P43" t="n">
-        <v>166.5229882524105</v>
+        <v>166.5229882524109</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.34784885427715</v>
+        <v>45.34784885427758</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K45" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L45" t="n">
         <v>494.931677133318</v>
@@ -38105,16 +38105,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O45" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P45" t="n">
-        <v>97.01375523721114</v>
+        <v>109.9611689511138</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.5752595952172</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.93025611631165</v>
+        <v>24.93025611631207</v>
       </c>
       <c r="K46" t="n">
-        <v>142.1440313893571</v>
+        <v>142.1440313893576</v>
       </c>
       <c r="L46" t="n">
-        <v>224.9532760139494</v>
+        <v>224.9532760139499</v>
       </c>
       <c r="M46" t="n">
-        <v>245.1430728138599</v>
+        <v>245.1430728138603</v>
       </c>
       <c r="N46" t="n">
-        <v>245.911461043016</v>
+        <v>245.9114610430164</v>
       </c>
       <c r="O46" t="n">
-        <v>214.5176342927584</v>
+        <v>214.5176342927588</v>
       </c>
       <c r="P46" t="n">
-        <v>166.5229882524105</v>
+        <v>166.5229882524109</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.34784885427715</v>
+        <v>45.34784885427758</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
